--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H2">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I2">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J2">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>293.286130830385</v>
+        <v>629.497597669731</v>
       </c>
       <c r="R2">
-        <v>2639.575177473465</v>
+        <v>5665.47837902758</v>
       </c>
       <c r="S2">
-        <v>0.01159385011621311</v>
+        <v>0.02575039127804341</v>
       </c>
       <c r="T2">
-        <v>0.01159385011621311</v>
+        <v>0.02575039127804342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H3">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I3">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J3">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>867.6417612006759</v>
+        <v>1808.492783567609</v>
       </c>
       <c r="R3">
-        <v>7808.775850806084</v>
+        <v>16276.43505210849</v>
       </c>
       <c r="S3">
-        <v>0.03429861652662112</v>
+        <v>0.07397867279045069</v>
       </c>
       <c r="T3">
-        <v>0.03429861652662112</v>
+        <v>0.07397867279045071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H4">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I4">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J4">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>77.22351503566699</v>
+        <v>188.273252519722</v>
       </c>
       <c r="R4">
-        <v>695.011635321003</v>
+        <v>1694.459272677498</v>
       </c>
       <c r="S4">
-        <v>0.003052711208115185</v>
+        <v>0.007701554283160741</v>
       </c>
       <c r="T4">
-        <v>0.003052711208115185</v>
+        <v>0.007701554283160742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H5">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I5">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J5">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>182.236061287973</v>
+        <v>190.0758172014797</v>
       </c>
       <c r="R5">
-        <v>1640.124551591757</v>
+        <v>1710.682354813317</v>
       </c>
       <c r="S5">
-        <v>0.007203946447654161</v>
+        <v>0.007775290459487809</v>
       </c>
       <c r="T5">
-        <v>0.00720394644765416</v>
+        <v>0.007775290459487811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H6">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I6">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J6">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>22.205184299067</v>
+        <v>45.59845409751566</v>
       </c>
       <c r="R6">
-        <v>199.846658691603</v>
+        <v>410.3860868776409</v>
       </c>
       <c r="S6">
-        <v>0.0008777898151452577</v>
+        <v>0.001865262137665802</v>
       </c>
       <c r="T6">
-        <v>0.0008777898151452577</v>
+        <v>0.001865262137665803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H7">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I7">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J7">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>101.284911642208</v>
+        <v>171.5518943974867</v>
       </c>
       <c r="R7">
-        <v>911.5642047798718</v>
+        <v>1543.96704957738</v>
       </c>
       <c r="S7">
-        <v>0.004003878674006463</v>
+        <v>0.007017546090052821</v>
       </c>
       <c r="T7">
-        <v>0.004003878674006462</v>
+        <v>0.007017546090052823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>210.479298</v>
       </c>
       <c r="I8">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J8">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>3539.965133482764</v>
+        <v>3645.232238337859</v>
       </c>
       <c r="R8">
-        <v>31859.68620134487</v>
+        <v>32807.09014504073</v>
       </c>
       <c r="S8">
-        <v>0.1399378315572483</v>
+        <v>0.1491128112069225</v>
       </c>
       <c r="T8">
-        <v>0.1399378315572483</v>
+        <v>0.1491128112069225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>210.479298</v>
       </c>
       <c r="I9">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J9">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
         <v>10472.4405968595</v>
@@ -1013,10 +1013,10 @@
         <v>94251.96537173551</v>
       </c>
       <c r="S9">
-        <v>0.4139844809134614</v>
+        <v>0.4283883592303747</v>
       </c>
       <c r="T9">
-        <v>0.4139844809134613</v>
+        <v>0.4283883592303748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>210.479298</v>
       </c>
       <c r="I10">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J10">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>932.0882304841728</v>
+        <v>1090.234072762396</v>
       </c>
       <c r="R10">
-        <v>8388.794074357555</v>
+        <v>9812.106654861565</v>
       </c>
       <c r="S10">
-        <v>0.03684624025255895</v>
+        <v>0.04459739649874833</v>
       </c>
       <c r="T10">
-        <v>0.03684624025255894</v>
+        <v>0.04459739649874834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>210.479298</v>
       </c>
       <c r="I11">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J11">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>2199.590213134681</v>
+        <v>1100.672185495401</v>
       </c>
       <c r="R11">
-        <v>19796.31191821212</v>
+        <v>9906.049669458607</v>
       </c>
       <c r="S11">
-        <v>0.08695167131145745</v>
+        <v>0.04502438063351578</v>
       </c>
       <c r="T11">
-        <v>0.08695167131145742</v>
+        <v>0.04502438063351579</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>210.479298</v>
       </c>
       <c r="I12">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J12">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>268.016690658706</v>
+        <v>264.0470043252486</v>
       </c>
       <c r="R12">
-        <v>2412.150215928354</v>
+        <v>2376.423038927237</v>
       </c>
       <c r="S12">
-        <v>0.01059492766106131</v>
+        <v>0.01080117494068288</v>
       </c>
       <c r="T12">
-        <v>0.01059492766106131</v>
+        <v>0.01080117494068288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>210.479298</v>
       </c>
       <c r="I13">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J13">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>1222.509413405077</v>
+        <v>993.4056910154268</v>
       </c>
       <c r="R13">
-        <v>11002.58472064569</v>
+        <v>8940.651219138841</v>
       </c>
       <c r="S13">
-        <v>0.04832683654200831</v>
+        <v>0.04063650971215193</v>
       </c>
       <c r="T13">
-        <v>0.0483268365420083</v>
+        <v>0.04063650971215194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H14">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I14">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J14">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>144.4437908304906</v>
+        <v>320.913319640571</v>
       </c>
       <c r="R14">
-        <v>1299.994117474415</v>
+        <v>2888.219876765139</v>
       </c>
       <c r="S14">
-        <v>0.005709985863855407</v>
+        <v>0.01312736311889164</v>
       </c>
       <c r="T14">
-        <v>0.005709985863855406</v>
+        <v>0.01312736311889165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H15">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I15">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J15">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>427.3146661106449</v>
+        <v>921.9565330655827</v>
       </c>
       <c r="R15">
-        <v>3845.831994995804</v>
+        <v>8297.608797590245</v>
       </c>
       <c r="S15">
-        <v>0.01689211207266948</v>
+        <v>0.03771379200757937</v>
       </c>
       <c r="T15">
-        <v>0.01689211207266948</v>
+        <v>0.03771379200757938</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H16">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I16">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J16">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>38.03267894538811</v>
+        <v>95.98034160780202</v>
       </c>
       <c r="R16">
-        <v>342.294110508493</v>
+        <v>863.8230744702181</v>
       </c>
       <c r="S16">
-        <v>0.001503464135731308</v>
+        <v>0.003926196637684188</v>
       </c>
       <c r="T16">
-        <v>0.001503464135731308</v>
+        <v>0.003926196637684189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H17">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I17">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J17">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>89.75149095500744</v>
+        <v>96.89927603746634</v>
       </c>
       <c r="R17">
-        <v>807.7634185950669</v>
+        <v>872.0934843371971</v>
       </c>
       <c r="S17">
-        <v>0.003547952748030896</v>
+        <v>0.003963786806749673</v>
       </c>
       <c r="T17">
-        <v>0.003547952748030895</v>
+        <v>0.003963786806749674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H18">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I18">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J18">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>10.93608138634367</v>
+        <v>23.24576190454233</v>
       </c>
       <c r="R18">
-        <v>98.424732477093</v>
+        <v>209.211857140881</v>
       </c>
       <c r="S18">
-        <v>0.0004323125955291193</v>
+        <v>0.0009508971389470692</v>
       </c>
       <c r="T18">
-        <v>0.0004323125955291193</v>
+        <v>0.0009508971389470696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H19">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I19">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J19">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>49.88294724373688</v>
+        <v>87.45591424895335</v>
       </c>
       <c r="R19">
-        <v>448.9465251936319</v>
+        <v>787.1032282405801</v>
       </c>
       <c r="S19">
-        <v>0.001971915317173037</v>
+        <v>0.003577494210980445</v>
       </c>
       <c r="T19">
-        <v>0.001971915317173037</v>
+        <v>0.003577494210980447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H20">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I20">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J20">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>667.7498967702384</v>
+        <v>434.431179824964</v>
       </c>
       <c r="R20">
-        <v>6009.749070932146</v>
+        <v>3909.880618424676</v>
       </c>
       <c r="S20">
-        <v>0.02639672116902181</v>
+        <v>0.01777095401997714</v>
       </c>
       <c r="T20">
-        <v>0.0263967211690218</v>
+        <v>0.01777095401997715</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H21">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I21">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J21">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>1975.435029385561</v>
+        <v>1248.083640952055</v>
       </c>
       <c r="R21">
-        <v>17778.91526447005</v>
+        <v>11232.7527685685</v>
       </c>
       <c r="S21">
-        <v>0.07809062631147255</v>
+        <v>0.05105443169475311</v>
       </c>
       <c r="T21">
-        <v>0.07809062631147254</v>
+        <v>0.05105443169475313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H22">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I22">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J22">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>175.8214547933177</v>
+        <v>129.9318242427014</v>
       </c>
       <c r="R22">
-        <v>1582.393093139859</v>
+        <v>1169.386418184312</v>
       </c>
       <c r="S22">
-        <v>0.006950371598945986</v>
+        <v>0.005315024753239667</v>
       </c>
       <c r="T22">
-        <v>0.006950371598945985</v>
+        <v>0.005315024753239668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H23">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I23">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J23">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>414.9126000889356</v>
+        <v>131.1758167603942</v>
       </c>
       <c r="R23">
-        <v>3734.21340080042</v>
+        <v>1180.582350843548</v>
       </c>
       <c r="S23">
-        <v>0.01640184785806115</v>
+        <v>0.005365911832389977</v>
       </c>
       <c r="T23">
-        <v>0.01640184785806114</v>
+        <v>0.005365911832389979</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H24">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I24">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J24">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>50.556463346851</v>
+        <v>31.46857158011155</v>
       </c>
       <c r="R24">
-        <v>455.008170121659</v>
+        <v>283.2171442210039</v>
       </c>
       <c r="S24">
-        <v>0.001998539981381509</v>
+        <v>0.001287261514815393</v>
       </c>
       <c r="T24">
-        <v>0.001998539981381509</v>
+        <v>0.001287261514815394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H25">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I25">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J25">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>230.6041172215573</v>
+        <v>118.3920195409689</v>
       </c>
       <c r="R25">
-        <v>2075.437054994016</v>
+        <v>1065.52817586872</v>
       </c>
       <c r="S25">
-        <v>0.009115976823311093</v>
+        <v>0.004842974522322473</v>
       </c>
       <c r="T25">
-        <v>0.009115976823311091</v>
+        <v>0.004842974522322475</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H26">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I26">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J26">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N26">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q26">
-        <v>24.71697068943667</v>
+        <v>16.735201333347</v>
       </c>
       <c r="R26">
-        <v>222.45273620493</v>
+        <v>150.616812000123</v>
       </c>
       <c r="S26">
-        <v>0.0009770828667854375</v>
+        <v>0.0006845744670762234</v>
       </c>
       <c r="T26">
-        <v>0.0009770828667854373</v>
+        <v>0.0006845744670762237</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H27">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I27">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J27">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>447.796844</v>
       </c>
       <c r="O27">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P27">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q27">
-        <v>73.12134371921866</v>
+        <v>48.07880277056756</v>
       </c>
       <c r="R27">
-        <v>658.092093472968</v>
+        <v>432.709224935108</v>
       </c>
       <c r="S27">
-        <v>0.00289054888813342</v>
+        <v>0.001966723920956947</v>
       </c>
       <c r="T27">
-        <v>0.00289054888813342</v>
+        <v>0.001966723920956948</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H28">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I28">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J28">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N28">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O28">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P28">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q28">
-        <v>6.508085985067333</v>
+        <v>5.005246720980667</v>
       </c>
       <c r="R28">
-        <v>58.572773865606</v>
+        <v>45.04722048882601</v>
       </c>
       <c r="S28">
-        <v>0.0002572701724444472</v>
+        <v>0.0002047459148144631</v>
       </c>
       <c r="T28">
-        <v>0.0002572701724444472</v>
+        <v>0.0002047459148144632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H29">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I29">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J29">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N29">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q29">
-        <v>15.35811929687933</v>
+        <v>5.053167925092112</v>
       </c>
       <c r="R29">
-        <v>138.223073671914</v>
+        <v>45.478511325829</v>
       </c>
       <c r="S29">
-        <v>0.0006071195139394978</v>
+        <v>0.0002067061919639751</v>
       </c>
       <c r="T29">
-        <v>0.0006071195139394977</v>
+        <v>0.0002067061919639752</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H30">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I30">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J30">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N30">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q30">
-        <v>1.871363258534</v>
+        <v>1.212235459890777</v>
       </c>
       <c r="R30">
-        <v>16.842269326806</v>
+        <v>10.910119139017</v>
       </c>
       <c r="S30">
-        <v>7.397658072341274E-05</v>
+        <v>4.958801674360606E-05</v>
       </c>
       <c r="T30">
-        <v>7.397658072341274E-05</v>
+        <v>4.958801674360608E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H31">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I31">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J31">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N31">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O31">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P31">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q31">
-        <v>8.535883320682665</v>
+        <v>4.560709210784444</v>
       </c>
       <c r="R31">
-        <v>76.82294988614399</v>
+        <v>41.04638289706001</v>
       </c>
       <c r="S31">
-        <v>0.0003374307252418683</v>
+        <v>0.0001865615486346804</v>
       </c>
       <c r="T31">
-        <v>0.0003374307252418683</v>
+        <v>0.0001865615486346805</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H32">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I32">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J32">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N32">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q32">
-        <v>135.3815978673461</v>
+        <v>26.154489992106</v>
       </c>
       <c r="R32">
-        <v>1218.434380806115</v>
+        <v>235.390409928954</v>
       </c>
       <c r="S32">
-        <v>0.00535174967095592</v>
+        <v>0.001069882321183613</v>
       </c>
       <c r="T32">
-        <v>0.005351749670955919</v>
+        <v>0.001069882321183613</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H33">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I33">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J33">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>447.796844</v>
       </c>
       <c r="O33">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P33">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q33">
-        <v>400.5055666124137</v>
+        <v>75.13961385033156</v>
       </c>
       <c r="R33">
-        <v>3604.550099511724</v>
+        <v>676.256524652984</v>
       </c>
       <c r="S33">
-        <v>0.01583232557525447</v>
+        <v>0.003073680446580939</v>
       </c>
       <c r="T33">
-        <v>0.01583232557525446</v>
+        <v>0.00307368044658094</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H34">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I34">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J34">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N34">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O34">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P34">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q34">
-        <v>35.64656408695922</v>
+        <v>7.822414123638667</v>
       </c>
       <c r="R34">
-        <v>320.819076782633</v>
+        <v>70.40172711274801</v>
       </c>
       <c r="S34">
-        <v>0.001409138986600091</v>
+        <v>0.000319985692031616</v>
       </c>
       <c r="T34">
-        <v>0.001409138986600091</v>
+        <v>0.0003199856920316162</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H35">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I35">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J35">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N35">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q35">
-        <v>84.12061319219187</v>
+        <v>7.897307435549111</v>
       </c>
       <c r="R35">
-        <v>757.0855187297268</v>
+        <v>71.075766919942</v>
       </c>
       <c r="S35">
-        <v>0.003325359362452236</v>
+        <v>0.0003230492971874443</v>
       </c>
       <c r="T35">
-        <v>0.003325359362452235</v>
+        <v>0.0003230492971874444</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H36">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I36">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J36">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N36">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q36">
-        <v>10.24996757547033</v>
+        <v>1.894533538751777</v>
       </c>
       <c r="R36">
-        <v>92.249708179233</v>
+        <v>17.050801848766</v>
       </c>
       <c r="S36">
-        <v>0.0004051899332218121</v>
+        <v>7.749827813930713E-05</v>
       </c>
       <c r="T36">
-        <v>0.0004051899332218121</v>
+        <v>7.749827813930717E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H37">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I37">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J37">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N37">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O37">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P37">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q37">
-        <v>46.75336381966576</v>
+        <v>7.127671847764445</v>
       </c>
       <c r="R37">
-        <v>420.7802743769919</v>
+        <v>64.14904662988</v>
       </c>
       <c r="S37">
-        <v>0.001848200223513018</v>
+        <v>0.0002915663850995733</v>
       </c>
       <c r="T37">
-        <v>0.001848200223513018</v>
+        <v>0.0002915663850995735</v>
       </c>
     </row>
   </sheetData>
